--- a/분석자료/부상자_node.xlsx
+++ b/분석자료/부상자_node.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\capstone2\capstone2\분석자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED7FEA-A029-4695-815F-6A8E15FE0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD96636-2CFB-455E-8CB5-76A0884552C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="1104" windowWidth="12612" windowHeight="11556" xr2:uid="{3699D9AE-9E6A-4A3B-9051-2F3401DD744C}"/>
+    <workbookView xWindow="780" yWindow="1920" windowWidth="21852" windowHeight="11556" xr2:uid="{3699D9AE-9E6A-4A3B-9051-2F3401DD744C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,27 @@
   </si>
   <si>
     <t xml:space="preserve">4,000만 </t>
+  </si>
+  <si>
+    <t>100~299인</t>
+  </si>
+  <si>
+    <t>19인 이하</t>
+  </si>
+  <si>
+    <t>20~49인</t>
+  </si>
+  <si>
+    <t>300~499인</t>
+  </si>
+  <si>
+    <t>50~99인</t>
+  </si>
+  <si>
+    <t>500인 이상</t>
+  </si>
+  <si>
+    <t>알수없음</t>
   </si>
 </sst>
 </file>
@@ -891,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D52335-F200-41EC-9A27-1E76288E6CD0}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2948,6 +2969,83 @@
         <v>10</v>
       </c>
     </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>159</v>
+      </c>
+      <c r="C192">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
